--- a/data/data_koae/excel/KOAE_2006.xlsx
+++ b/data/data_koae/excel/KOAE_2006.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Desktop\KilaueaKoaProject\data_koae\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Desktop\KilaueaKoaeProject\KilaueaKoaeProject\data\data_koae\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ex" sheetId="2" r:id="rId1"/>
@@ -26,601 +26,151 @@
     <t>K001</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469242.8475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518481.0117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099557.4187</t>
-  </si>
-  <si>
     <t>K002</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469283.5738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518480.7996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099460.8969</t>
-  </si>
-  <si>
     <t>K003</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469324.1254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518495.0363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099346.8626</t>
-  </si>
-  <si>
     <t>K004</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469345.4585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518520.2330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099254.9354</t>
-  </si>
-  <si>
     <t>K005</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469211.3445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518466.9475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099657.1411</t>
-  </si>
-  <si>
     <t>K006</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469178.4328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518469.9250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099754.7513</t>
-  </si>
-  <si>
     <t>K007</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469170.2539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518420.0871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099831.9015</t>
-  </si>
-  <si>
     <t>K008</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469158.4193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518378.5121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2099928.2316</t>
-  </si>
-  <si>
     <t>K009</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469158.3575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518324.3671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100028.7586</t>
-  </si>
-  <si>
     <t>K010</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469129.0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518299.2460</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100135.2434</t>
-  </si>
-  <si>
     <t>K011</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469115.7948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518271.7606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100234.0498</t>
-  </si>
-  <si>
     <t>K012</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469116.8387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518209.9630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100318.6502</t>
-  </si>
-  <si>
     <t>K013</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469110.5213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518159.7129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100404.6596</t>
-  </si>
-  <si>
     <t>K014</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469109.6877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518145.4241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100420.1535</t>
-  </si>
-  <si>
     <t>K015</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469127.2088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518101.1491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100423.3895</t>
-  </si>
-  <si>
     <t>K016</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469096.3045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518107.8393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100494.2482</t>
-  </si>
-  <si>
     <t>K017</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469082.5510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518111.1450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100514.1686</t>
-  </si>
-  <si>
     <t>K018</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469068.8024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518069.7626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100602.7998</t>
-  </si>
-  <si>
     <t>K019</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469048.7986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518034.3534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100707.1993</t>
-  </si>
-  <si>
     <t>K020</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469048.9880</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517966.8069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100792.9808</t>
-  </si>
-  <si>
     <t>K021</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469031.9912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517934.9936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100879.4771</t>
-  </si>
-  <si>
     <t>K022</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469070.7222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518099.9066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100551.1810</t>
-  </si>
-  <si>
     <t>K023</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469030.1937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517883.4873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2100974.1527</t>
-  </si>
-  <si>
     <t>K024</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469021.8606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517837.0669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101073.4690</t>
-  </si>
-  <si>
     <t>K025</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468998.0929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517810.8011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101172.4984</t>
-  </si>
-  <si>
     <t>K026</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468987.9748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517792.9198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101225.8413</t>
-  </si>
-  <si>
     <t>K027</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468971.6798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517765.2679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101281.8920</t>
-  </si>
-  <si>
     <t>K028</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468955.9120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517712.6555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101353.8464</t>
-  </si>
-  <si>
     <t>K029</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468932.0583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517684.8931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101458.1385</t>
-  </si>
-  <si>
     <t>K030</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468913.3609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517646.4612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101558.2892</t>
-  </si>
-  <si>
     <t>K031</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468913.6847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517604.4856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101613.8658</t>
-  </si>
-  <si>
     <t>K032</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468888.8125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517621.0401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101676.8909</t>
-  </si>
-  <si>
     <t>K033</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468891.0954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517581.4965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101734.4189</t>
-  </si>
-  <si>
     <t>K034</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468867.9222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517570.2877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101806.5016</t>
-  </si>
-  <si>
     <t>K035</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468852.1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517501.6276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2101910.6975</t>
-  </si>
-  <si>
     <t>K036</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468829.4934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517470.6937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102010.5992</t>
-  </si>
-  <si>
     <t>K037</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468819.0382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517421.4450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102102.8588</t>
-  </si>
-  <si>
     <t>K038</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468799.1364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517390.9877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102205.4456</t>
-  </si>
-  <si>
     <t>K039</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468800.6423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517325.3082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102282.1956</t>
-  </si>
-  <si>
     <t>K040</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468769.1086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517326.9765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102369.0832</t>
-  </si>
-  <si>
     <t>K041</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468780.8409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517254.5292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102424.7760</t>
-  </si>
-  <si>
     <t>K042</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5468761.9974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2517216.0404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2102522.6169</t>
-  </si>
-  <si>
     <t>K055</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469775.0459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518052.6533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098549.1116</t>
-  </si>
-  <si>
     <t>K056</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469804.2155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518073.7860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098441.6055</t>
-  </si>
-  <si>
     <t>K057</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469814.7684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518118.7240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098344.7782</t>
-  </si>
-  <si>
     <t>K058</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469843.9113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518150.5103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098220.6886</t>
-  </si>
-  <si>
     <t>K059</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469870.4313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518175.0017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098124.3674</t>
-  </si>
-  <si>
     <t>K060</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469912.5176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518147.7574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2098032.8824</t>
-  </si>
-  <si>
     <t>K063</t>
   </si>
   <si>
-    <t xml:space="preserve">  -5469993.2933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518185.3131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2097751.6373</t>
-  </si>
-  <si>
     <t>K064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -5470014.6292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -2518193.3578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2097673.8755</t>
   </si>
   <si>
     <t>id site</t>
@@ -694,6 +244,456 @@
   </si>
   <si>
     <t>nan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469242.8781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518480.8608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099557.5175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469283.5808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518480.7651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099460.9195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469324.1324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518495.0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099346.8852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469345.4622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518520.2145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099254.9475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469211.3752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518466.7966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099657.2399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469178.4635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518469.7741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099754.8501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469170.2911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518419.9039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099832.0215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469158.4500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518378.3611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2099928.3305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469158.3772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518324.2700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100028.8222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469129.0098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518299.1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100135.2741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469115.8209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518271.6320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100234.1340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469116.8648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518209.8344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100318.7344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469110.5405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518159.6187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100404.7213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469109.7043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518145.3426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100420.2068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469127.2144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518101.1217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100423.4075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469096.3142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518107.7916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100494.2794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469082.5791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518111.0067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100514.2592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469068.8047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518069.7516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100602.8070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469048.8153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518034.2714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100707.2530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469049.0188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517966.6554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100793.0800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469032.0220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517934.8421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100879.5763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469070.7362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518099.8375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100551.2262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469030.2245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517883.3358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2100974.2519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469021.8836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517836.9533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101073.5434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468998.1095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517810.7190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101172.5521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468988.0120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517792.7364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101225.9614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468971.7105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517765.1163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101281.9912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468955.9325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517712.5545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101353.9125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468932.0750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517684.8109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101458.1923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468913.3929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517646.3035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101558.3924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468913.7078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517604.3719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101613.9403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468888.8435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517620.8872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101676.9910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468891.1185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517581.3827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101734.4934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468867.9363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517570.2182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101806.5471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468852.2217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517501.5138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2101910.7720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468829.5242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517470.5419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102010.6985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468819.0456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517421.4082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102102.8829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468799.1438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517390.9509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102205.4697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468800.6653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517325.1945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102282.2700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468769.1316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517326.8628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102369.1576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468780.8639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517254.4155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102424.8504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5468762.0204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2517215.9267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2102522.6913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469775.1093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518052.3412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098549.3160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469804.2789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518073.4739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098441.8099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469814.8319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518118.4118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098344.9827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469843.9748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518150.1981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098220.8931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469870.4484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518174.9174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098124.4226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469912.5260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518147.7160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2098032.9096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5469993.3017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518185.2717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2097751.6645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -5470014.6079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -2518193.4623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2097673.8071</t>
   </si>
   <si>
     <t>NaN</t>
@@ -1572,45 +1572,45 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>208</v>
+        <v>58</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>209</v>
+        <v>59</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1619,7 +1619,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10" t="s">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -1639,7 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:G52"/>
     </sheetView>
   </sheetViews>
@@ -1651,30 +1651,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>221</v>
+        <v>71</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>2006</v>
@@ -1714,16 +1714,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>2006</v>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E5">
         <v>2006</v>
@@ -1760,16 +1760,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>2006</v>
@@ -1783,16 +1783,16 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="E7">
         <v>2006</v>
@@ -1806,16 +1806,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>2006</v>
@@ -1829,16 +1829,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E9">
         <v>2006</v>
@@ -1852,16 +1852,16 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>2006</v>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>2006</v>
@@ -1898,16 +1898,16 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="E12">
         <v>2006</v>
@@ -1921,16 +1921,16 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>2006</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="E14">
         <v>2006</v>
@@ -1967,16 +1967,16 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="E15">
         <v>2006</v>
@@ -1990,16 +1990,16 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="E16">
         <v>2006</v>
@@ -2013,16 +2013,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="E17">
         <v>2006</v>
@@ -2036,16 +2036,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="E18">
         <v>2006</v>
@@ -2059,16 +2059,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="E19">
         <v>2006</v>
@@ -2082,16 +2082,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="E20">
         <v>2006</v>
@@ -2105,16 +2105,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E21">
         <v>2006</v>
@@ -2128,16 +2128,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="E22">
         <v>2006</v>
@@ -2151,16 +2151,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="E23">
         <v>2006</v>
@@ -2174,16 +2174,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="E24">
         <v>2006</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="E25">
         <v>2006</v>
@@ -2220,16 +2220,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="E26">
         <v>2006</v>
@@ -2243,16 +2243,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="E27">
         <v>2006</v>
@@ -2266,16 +2266,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="E28">
         <v>2006</v>
@@ -2289,16 +2289,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="E29">
         <v>2006</v>
@@ -2312,16 +2312,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="E30">
         <v>2006</v>
@@ -2335,16 +2335,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="E31">
         <v>2006</v>
@@ -2358,16 +2358,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="E32">
         <v>2006</v>
@@ -2381,16 +2381,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="E33">
         <v>2006</v>
@@ -2404,16 +2404,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="E34">
         <v>2006</v>
@@ -2427,16 +2427,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="E35">
         <v>2006</v>
@@ -2450,16 +2450,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="E36">
         <v>2006</v>
@@ -2473,16 +2473,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="E37">
         <v>2006</v>
@@ -2496,16 +2496,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="E38">
         <v>2006</v>
@@ -2519,16 +2519,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="E39">
         <v>2006</v>
@@ -2542,16 +2542,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E40">
         <v>2006</v>
@@ -2565,16 +2565,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="E41">
         <v>2006</v>
@@ -2588,16 +2588,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="E42">
         <v>2006</v>
@@ -2611,16 +2611,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="E43">
         <v>2006</v>
@@ -2634,16 +2634,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="E44">
         <v>2006</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="D45" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="E45">
         <v>2006</v>
@@ -2680,16 +2680,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D46" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="E46">
         <v>2006</v>
@@ -2703,16 +2703,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="E47">
         <v>2006</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="E48">
         <v>2006</v>
@@ -2749,16 +2749,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="C49" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="E49">
         <v>2006</v>
@@ -2772,16 +2772,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="D50" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="E50">
         <v>2006</v>
@@ -2795,16 +2795,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="D51" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="E51">
         <v>2006</v>
@@ -2818,16 +2818,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="D52" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="E52">
         <v>2006</v>
@@ -2854,6 +2854,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2872,28 +2875,28 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="H1">
-        <v>19.343182623691501</v>
+        <v>19.343183571384401</v>
       </c>
       <c r="I1">
-        <v>-155.27483988275199</v>
+        <v>-155.27484130880899</v>
       </c>
       <c r="J1">
-        <v>985.92703432776</v>
+        <v>985.926431666128</v>
       </c>
       <c r="K1">
-        <v>261019.11473304901</v>
+        <v>261018.96623883999</v>
       </c>
       <c r="L1">
-        <v>2140372.5356966499</v>
+        <v>2140372.6425977098</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -2910,28 +2913,28 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="H2">
-        <v>19.342249612879598</v>
+        <v>19.342249829636</v>
       </c>
       <c r="I2">
-        <v>-155.27500380788501</v>
+        <v>-155.27500413393599</v>
       </c>
       <c r="J2">
-        <v>988.77821946795996</v>
+        <v>988.77808860968798</v>
       </c>
       <c r="K2">
-        <v>261000.527323407</v>
+        <v>261000.49337189601</v>
       </c>
       <c r="L2">
-        <v>2140269.4589662799</v>
+        <v>2140269.4834165601</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -2948,28 +2951,28 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H3">
-        <v>19.341149747490999</v>
+        <v>19.3411499642473</v>
       </c>
       <c r="I3">
-        <v>-155.275042152303</v>
+        <v>-155.275042478351</v>
       </c>
       <c r="J3">
-        <v>991.38368744030595</v>
+        <v>991.38355614524301</v>
       </c>
       <c r="K3">
-        <v>260994.89505090599</v>
+        <v>260994.861099398</v>
       </c>
       <c r="L3">
-        <v>2140147.7343571498</v>
+        <v>2140147.7588073802</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -2986,28 +2989,28 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="H4">
-        <v>19.340276798638701</v>
+        <v>19.3402769148556</v>
       </c>
       <c r="I4">
-        <v>-155.27490927899601</v>
+        <v>-155.27490945361899</v>
       </c>
       <c r="J4">
-        <v>989.16675153654103</v>
+        <v>989.16662869788695</v>
       </c>
       <c r="K4">
-        <v>261007.58822524801</v>
+        <v>261007.570041759</v>
       </c>
       <c r="L4">
-        <v>2140050.8973085</v>
+        <v>2140050.9104175498</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -3024,28 +3027,28 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="H5">
-        <v>19.3441357121938</v>
+        <v>19.3441366596149</v>
       </c>
       <c r="I5">
-        <v>-155.274836059601</v>
+        <v>-155.274837486065</v>
       </c>
       <c r="J5">
-        <v>986.40833058021997</v>
+        <v>986.40781535953295</v>
       </c>
       <c r="K5">
-        <v>261020.90506482101</v>
+        <v>261020.75652847101</v>
       </c>
       <c r="L5">
-        <v>2140478.0568440501</v>
+        <v>2140478.1637156601</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -3062,28 +3065,28 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="H6">
-        <v>19.345053300908798</v>
+        <v>19.345054248330399</v>
       </c>
       <c r="I6">
-        <v>-155.274679332266</v>
+        <v>-155.274680758735</v>
       </c>
       <c r="J6">
-        <v>991.70993335358799</v>
+        <v>991.70941942464594</v>
       </c>
       <c r="K6">
-        <v>261038.71337299899</v>
+        <v>261038.56483685001</v>
       </c>
       <c r="L6">
-        <v>2140579.4359923298</v>
+        <v>2140579.5428639301</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -3100,28 +3103,28 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="H7">
-        <v>19.345795400797101</v>
+        <v>19.345796551646298</v>
       </c>
       <c r="I7">
-        <v>-155.27507754701</v>
+        <v>-155.275079278541</v>
       </c>
       <c r="J7">
-        <v>990.58875928539805</v>
+        <v>990.58809429313999</v>
       </c>
       <c r="K7">
-        <v>260997.94389887701</v>
+        <v>260997.76359944401</v>
       </c>
       <c r="L7">
-        <v>2140662.1524126302</v>
+        <v>2140662.2822302398</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -3138,28 +3141,28 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="H8">
-        <v>19.346700551183599</v>
+        <v>19.346701499576199</v>
       </c>
       <c r="I8">
-        <v>-155.27538979549399</v>
+        <v>-155.275391222845</v>
       </c>
       <c r="J8">
-        <v>995.95067004580096</v>
+        <v>995.95015455130499</v>
       </c>
       <c r="K8">
-        <v>260966.44711413101</v>
+        <v>260966.298488712</v>
       </c>
       <c r="L8">
-        <v>2140762.80308659</v>
+        <v>2140762.9100677599</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -3176,28 +3179,28 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="H9">
-        <v>19.347625199084298</v>
+        <v>19.347625809077201</v>
       </c>
       <c r="I9">
-        <v>-155.27585755195699</v>
+        <v>-155.27585846965101</v>
       </c>
       <c r="J9">
-        <v>1007.83394472953</v>
+        <v>1007.8335803886901</v>
       </c>
       <c r="K9">
-        <v>260918.63612957799</v>
+        <v>260918.540574296</v>
       </c>
       <c r="L9">
-        <v>2140865.8278140398</v>
+        <v>2140865.8966226699</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -3214,28 +3217,28 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="H10">
-        <v>19.3486439200421</v>
+        <v>19.348644214425001</v>
       </c>
       <c r="I10">
-        <v>-155.27595784616199</v>
+        <v>-155.27595828849201</v>
       </c>
       <c r="J10">
-        <v>1008.03957020771</v>
+        <v>1008.0394149050099</v>
       </c>
       <c r="K10">
-        <v>260909.58096784001</v>
+        <v>260909.53491082499</v>
       </c>
       <c r="L10">
-        <v>2140978.7600062001</v>
+        <v>2140978.79321258</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -3252,28 +3255,28 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="H11">
-        <v>19.3495562580772</v>
+        <v>19.349557065652899</v>
       </c>
       <c r="I11">
-        <v>-155.27614286160099</v>
+        <v>-155.27614407705099</v>
       </c>
       <c r="J11">
-        <v>1018.61254767794</v>
+        <v>1018.61206589546</v>
       </c>
       <c r="K11">
-        <v>260891.46726115901</v>
+        <v>260891.34070303501</v>
       </c>
       <c r="L11">
-        <v>2141080.0306974798</v>
+        <v>2141080.1217949898</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -3290,28 +3293,28 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="H12">
-        <v>19.3503517410842</v>
+        <v>19.3503525486557</v>
       </c>
       <c r="I12">
-        <v>-155.276681174853</v>
+        <v>-155.27668239030999</v>
       </c>
       <c r="J12">
-        <v>1023.15215190314</v>
+        <v>1023.1516724946</v>
       </c>
       <c r="K12">
-        <v>260836.054352857</v>
+        <v>260835.92779482799</v>
       </c>
       <c r="L12">
-        <v>2141168.8522427701</v>
+        <v>2141168.9433403201</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -3328,28 +3331,28 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="H13">
-        <v>19.3511647868106</v>
+        <v>19.3511653783331</v>
       </c>
       <c r="I13">
-        <v>-155.277090381411</v>
+        <v>-155.27709127206899</v>
       </c>
       <c r="J13">
-        <v>1026.40820504166</v>
+        <v>1026.40793308616</v>
       </c>
       <c r="K13">
-        <v>260794.235771301</v>
+        <v>260794.14303292899</v>
       </c>
       <c r="L13">
-        <v>2141259.4397999598</v>
+        <v>2141259.5065270402</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -3366,28 +3369,28 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="H14">
-        <v>19.3513169774908</v>
+        <v>19.351317488599499</v>
       </c>
       <c r="I14">
-        <v>-155.277210573182</v>
+        <v>-155.277211343717</v>
       </c>
       <c r="J14">
-        <v>1025.1894403286301</v>
+        <v>1025.18916847277</v>
       </c>
       <c r="K14">
-        <v>260781.82657528701</v>
+        <v>260781.74634366299</v>
       </c>
       <c r="L14">
-        <v>2141276.45689613</v>
+        <v>2141276.5145534799</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -3404,28 +3407,28 @@
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="H15">
-        <v>19.3513523414132</v>
+        <v>19.351352513881501</v>
       </c>
       <c r="I15">
-        <v>-155.277663009305</v>
+        <v>-155.277663268433</v>
       </c>
       <c r="J15">
-        <v>1023.8069813158399</v>
+        <v>1023.80693328939</v>
       </c>
       <c r="K15">
-        <v>260734.33064642799</v>
+        <v>260734.30366576</v>
       </c>
       <c r="L15">
-        <v>2141280.9990064199</v>
+        <v>2141281.0184611399</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -3442,28 +3445,28 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="H16">
-        <v>19.3520318407807</v>
+        <v>19.352032140003001</v>
       </c>
       <c r="I16">
-        <v>-155.27748218652701</v>
+        <v>-155.277482637444</v>
       </c>
       <c r="J16">
-        <v>1023.44127607998</v>
+        <v>1023.44110582583</v>
       </c>
       <c r="K16">
-        <v>260754.32521256499</v>
+        <v>260754.27826155201</v>
       </c>
       <c r="L16">
-        <v>2141355.9832380498</v>
+        <v>2141356.0169926798</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -3480,28 +3483,28 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="H17">
-        <v>19.352234855257699</v>
+        <v>19.352235724069999</v>
       </c>
       <c r="I17">
-        <v>-155.277398875541</v>
+        <v>-155.27740018282199</v>
       </c>
       <c r="J17">
-        <v>1019.5597196221401</v>
+        <v>1019.55925192777</v>
       </c>
       <c r="K17">
-        <v>260763.37673921901</v>
+        <v>260763.24062257001</v>
       </c>
       <c r="L17">
-        <v>2141378.3457678501</v>
+        <v>2141378.44377393</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -3518,28 +3521,28 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="H18">
-        <v>19.3530793450422</v>
+        <v>19.353079413916401</v>
       </c>
       <c r="I18">
-        <v>-155.277701863472</v>
+        <v>-155.277701967708</v>
       </c>
       <c r="J18">
-        <v>1020.818479985</v>
+        <v>1020.81849664822</v>
       </c>
       <c r="K18">
-        <v>260732.76765019499</v>
+        <v>260732.75679633699</v>
       </c>
       <c r="L18">
-        <v>2141472.2679750798</v>
+        <v>2141472.2757452801</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -3556,28 +3559,28 @@
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="H19">
-        <v>19.3540677390634</v>
+        <v>19.354068253931899</v>
       </c>
       <c r="I19">
-        <v>-155.277928327501</v>
+        <v>-155.27792910277199</v>
       </c>
       <c r="J19">
-        <v>1024.3005653657001</v>
+        <v>1024.30031815451</v>
       </c>
       <c r="K19">
-        <v>260710.41092395</v>
+        <v>260710.33020184701</v>
       </c>
       <c r="L19">
-        <v>2141582.0174506898</v>
+        <v>2141582.07553139</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -3594,28 +3597,28 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="H20">
-        <v>19.3548827979929</v>
+        <v>19.354883749267</v>
       </c>
       <c r="I20">
-        <v>-155.27851295565799</v>
+        <v>-155.27851438781201</v>
       </c>
       <c r="J20">
-        <v>1026.2395275477299</v>
+        <v>1026.2390226023299</v>
       </c>
       <c r="K20">
-        <v>260650.162039602</v>
+        <v>260650.01292338499</v>
       </c>
       <c r="L20">
-        <v>2141673.0714956499</v>
+        <v>2141673.1788061899</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -3632,28 +3635,28 @@
         <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="H21">
-        <v>19.355705943976801</v>
+        <v>19.355706895249</v>
       </c>
       <c r="I21">
-        <v>-155.27872031007701</v>
+        <v>-155.27872174223899</v>
       </c>
       <c r="J21">
-        <v>1027.78751724213</v>
+        <v>1027.7870143242201</v>
       </c>
       <c r="K21">
-        <v>260629.57312406501</v>
+        <v>260629.42400791901</v>
       </c>
       <c r="L21">
-        <v>2141764.4982845001</v>
+        <v>2141764.60559511</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -3670,28 +3673,28 @@
         <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="H22">
-        <v>19.352596500212002</v>
+        <v>19.352596933839202</v>
       </c>
       <c r="I22">
-        <v>-155.277448941871</v>
+        <v>-155.277449594882</v>
       </c>
       <c r="J22">
-        <v>1017.2526680193801</v>
+        <v>1017.25237827282</v>
       </c>
       <c r="K22">
-        <v>260758.642892526</v>
+        <v>260758.574899381</v>
       </c>
       <c r="L22">
-        <v>2141418.4567074198</v>
+        <v>2141418.50562339</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -3708,28 +3711,28 @@
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="H23">
-        <v>19.356582113535602</v>
+        <v>19.356583064802901</v>
       </c>
       <c r="I23">
-        <v>-155.27915838543501</v>
+        <v>-155.27915981760501</v>
       </c>
       <c r="J23">
-        <v>1037.3037584573001</v>
+        <v>1037.3032582364999</v>
       </c>
       <c r="K23">
-        <v>260584.81568688099</v>
+        <v>260584.66657097801</v>
       </c>
       <c r="L23">
-        <v>2141862.1157744201</v>
+        <v>2141862.2230849802</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -3746,28 +3749,28 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="G24" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="H24">
-        <v>19.3575092315311</v>
+        <v>19.357509945219199</v>
       </c>
       <c r="I24">
-        <v>-155.279526490911</v>
+        <v>-155.27952756443099</v>
       </c>
       <c r="J24">
-        <v>1044.7656054701699</v>
+        <v>1044.7651564292601</v>
       </c>
       <c r="K24">
-        <v>260547.486242994</v>
+        <v>260547.37447110401</v>
       </c>
       <c r="L24">
-        <v>2141965.2774738302</v>
+        <v>2141965.35798254</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -3784,28 +3787,28 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="H25">
-        <v>19.358450643301101</v>
+        <v>19.358451158557401</v>
       </c>
       <c r="I25">
-        <v>-155.27965895271001</v>
+        <v>-155.27965972847099</v>
       </c>
       <c r="J25">
-        <v>1046.8586107874301</v>
+        <v>1046.85824510455</v>
       </c>
       <c r="K25">
-        <v>260534.94145607299</v>
+        <v>260534.86068589601</v>
       </c>
       <c r="L25">
-        <v>2142069.6951396102</v>
+        <v>2142069.75326504</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -3822,28 +3825,28 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="H26">
-        <v>19.3589551141561</v>
+        <v>19.358956266052299</v>
       </c>
       <c r="I26">
-        <v>-155.27977325804099</v>
+        <v>-155.279774991457</v>
       </c>
       <c r="J26">
-        <v>1048.81455706619</v>
+        <v>1048.8138896497001</v>
       </c>
       <c r="K26">
-        <v>260523.666460309</v>
+        <v>260523.485983019</v>
       </c>
       <c r="L26">
-        <v>2142125.7091445802</v>
+        <v>2142125.8390875501</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -3860,28 +3863,28 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="H27">
-        <v>19.359511692597501</v>
+        <v>19.359512644254899</v>
       </c>
       <c r="I27">
-        <v>-155.279947442994</v>
+        <v>-155.27994887566001</v>
       </c>
       <c r="J27">
-        <v>1042.52013746649</v>
+        <v>1042.5195194315199</v>
       </c>
       <c r="K27">
-        <v>260506.17512133601</v>
+        <v>260506.02595724701</v>
       </c>
       <c r="L27">
-        <v>2142187.5756183499</v>
+        <v>2142187.6829738198</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -3898,28 +3901,28 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="H28">
-        <v>19.360233615244901</v>
+        <v>19.3602342492239</v>
       </c>
       <c r="I28">
-        <v>-155.28033949764099</v>
+        <v>-155.28034045231499</v>
       </c>
       <c r="J28">
-        <v>1032.1025733454201</v>
+        <v>1032.1022066734699</v>
       </c>
       <c r="K28">
-        <v>260466.03036753301</v>
+        <v>260465.93097060401</v>
       </c>
       <c r="L28">
-        <v>2142268.0514207701</v>
+        <v>2142268.1229399201</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -3936,28 +3939,28 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="G29" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="H29">
-        <v>19.361221980868599</v>
+        <v>19.3612224968277</v>
       </c>
       <c r="I29">
-        <v>-155.28048456146499</v>
+        <v>-155.280485338506</v>
       </c>
       <c r="J29">
-        <v>1035.281271738</v>
+        <v>1035.28098932188</v>
       </c>
       <c r="K29">
-        <v>260452.230822799</v>
+        <v>260452.14992090501</v>
       </c>
       <c r="L29">
-        <v>2142377.6855087401</v>
+        <v>2142377.7437143102</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -3974,28 +3977,28 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="G30" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="H30">
-        <v>19.362174389673601</v>
+        <v>19.362175379513499</v>
       </c>
       <c r="I30">
-        <v>-155.280742380438</v>
+        <v>-155.28074387103899</v>
       </c>
       <c r="J30">
-        <v>1037.2984116580301</v>
+        <v>1037.2978341523601</v>
       </c>
       <c r="K30">
-        <v>260426.53003772101</v>
+        <v>260426.37484442399</v>
       </c>
       <c r="L30">
-        <v>2142483.4949153601</v>
+        <v>2142483.6065798202</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -4012,28 +4015,28 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="H31">
-        <v>19.3626996613636</v>
+        <v>19.362700375748201</v>
       </c>
       <c r="I31">
-        <v>-155.28110653237201</v>
+        <v>-155.28110760719599</v>
       </c>
       <c r="J31">
-        <v>1039.44179342128</v>
+        <v>1039.4414338767499</v>
       </c>
       <c r="K31">
-        <v>260389.03104188299</v>
+        <v>260388.919138428</v>
       </c>
       <c r="L31">
-        <v>2142542.15889489</v>
+        <v>2142542.23948402</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -4050,28 +4053,28 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="F32" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="G32" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="H32">
-        <v>19.3632836475483</v>
+        <v>19.363284607678999</v>
       </c>
       <c r="I32">
-        <v>-155.28086444372701</v>
+        <v>-155.280865888862</v>
       </c>
       <c r="J32">
-        <v>1045.5536791905799</v>
+        <v>1045.5531129911501</v>
       </c>
       <c r="K32">
-        <v>260415.32483816601</v>
+        <v>260415.17438032001</v>
       </c>
       <c r="L32">
-        <v>2142606.4824994202</v>
+        <v>2142606.5908115902</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -4088,28 +4091,28 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="F33" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="G33" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="H33">
-        <v>19.363817171233901</v>
+        <v>19.363817885741799</v>
       </c>
       <c r="I33">
-        <v>-155.28121537042401</v>
+        <v>-155.281216446119</v>
       </c>
       <c r="J33">
-        <v>1050.9836516780799</v>
+        <v>1050.9832544261601</v>
       </c>
       <c r="K33">
-        <v>260379.22801764801</v>
+        <v>260379.11602378901</v>
       </c>
       <c r="L33">
-        <v>2142666.0418537701</v>
+        <v>2142666.1224579201</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -4126,28 +4129,28 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="G34" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="H34">
-        <v>19.364508484796399</v>
+        <v>19.364508921193099</v>
       </c>
       <c r="I34">
-        <v>-155.28122004820199</v>
+        <v>-155.28122070512401</v>
       </c>
       <c r="J34">
-        <v>1050.6031350614501</v>
+        <v>1050.6028869254501</v>
       </c>
       <c r="K34">
-        <v>260379.74747629999</v>
+        <v>260379.67908260899</v>
       </c>
       <c r="L34">
-        <v>2142742.5913401502</v>
+        <v>2142742.6405703002</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -4164,28 +4167,28 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="G35" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="H35">
-        <v>19.3655251259027</v>
+        <v>19.3655258404081</v>
       </c>
       <c r="I35">
-        <v>-155.28175102747301</v>
+        <v>-155.28175210318199</v>
       </c>
       <c r="J35">
-        <v>1044.5914683835599</v>
+        <v>1044.5910744862599</v>
       </c>
       <c r="K35">
-        <v>260325.43725230999</v>
+        <v>260325.32525839101</v>
       </c>
       <c r="L35">
-        <v>2142855.89209736</v>
+        <v>2142855.9727017502</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -4202,28 +4205,28 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="F36" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="G36" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="H36">
-        <v>19.366476921329799</v>
+        <v>19.3664778738015</v>
       </c>
       <c r="I36">
-        <v>-155.28192809125801</v>
+        <v>-155.28192952612301</v>
       </c>
       <c r="J36">
-        <v>1046.0578314513</v>
+        <v>1046.05727109499</v>
       </c>
       <c r="K36">
-        <v>260308.22331664799</v>
+        <v>260308.07393064999</v>
       </c>
       <c r="L36">
-        <v>2142961.5218340298</v>
+        <v>2142961.6292852298</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -4240,28 +4243,28 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="F37" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="G37" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="H37">
-        <v>19.367353205308898</v>
+        <v>19.3673534366241</v>
       </c>
       <c r="I37">
-        <v>-155.28231223655899</v>
+        <v>-155.28231258414201</v>
       </c>
       <c r="J37">
-        <v>1048.26468718611</v>
+        <v>1048.2645038757501</v>
       </c>
       <c r="K37">
-        <v>260269.13858115001</v>
+        <v>260269.102394866</v>
       </c>
       <c r="L37">
-        <v>2143059.0784984399</v>
+        <v>2143059.10459268</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -4278,28 +4281,28 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="H38">
-        <v>19.368319653884299</v>
+        <v>19.368319885199</v>
       </c>
       <c r="I38">
-        <v>-155.28249634116801</v>
+        <v>-155.28249668875301</v>
       </c>
       <c r="J38">
-        <v>1053.21551333461</v>
+        <v>1053.21533056628</v>
       </c>
       <c r="K38">
-        <v>260251.206902629</v>
+        <v>260251.170716386</v>
       </c>
       <c r="L38">
-        <v>2143166.3405596698</v>
+        <v>2143166.3666539202</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -4316,28 +4319,28 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="G39" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="H39">
-        <v>19.369051810521999</v>
+        <v>19.369052524313201</v>
       </c>
       <c r="I39">
-        <v>-155.28307013724299</v>
+        <v>-155.28307121171699</v>
       </c>
       <c r="J39">
-        <v>1054.05090302601</v>
+        <v>1054.0504370378301</v>
       </c>
       <c r="K39">
-        <v>260191.983333026</v>
+        <v>260191.871470991</v>
       </c>
       <c r="L39">
-        <v>2143248.2029839102</v>
+        <v>2143248.2835086901</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -4354,28 +4357,28 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="F40" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="H40">
-        <v>19.3698758964529</v>
+        <v>19.369876610244798</v>
       </c>
       <c r="I40">
-        <v>-155.28293022882599</v>
+        <v>-155.28293130330499</v>
       </c>
       <c r="J40">
-        <v>1056.50258872006</v>
+        <v>1056.50212361012</v>
       </c>
       <c r="K40">
-        <v>260207.89149369401</v>
+        <v>260207.77963175601</v>
       </c>
       <c r="L40">
-        <v>2143339.2524220101</v>
+        <v>2143339.3329468099</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -4392,28 +4395,28 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="G41" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="H41">
-        <v>19.370409272474401</v>
+        <v>19.370409986262299</v>
       </c>
       <c r="I41">
-        <v>-155.28360323548901</v>
+        <v>-155.28360430997401</v>
       </c>
       <c r="J41">
-        <v>1056.4505240702999</v>
+        <v>1056.4500609449999</v>
       </c>
       <c r="K41">
-        <v>260137.95259549201</v>
+        <v>260137.84073353</v>
       </c>
       <c r="L41">
-        <v>2143399.2437192001</v>
+        <v>2143399.3242440899</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -4430,28 +4433,28 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="F42" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="G42" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="H42">
-        <v>19.371342457151499</v>
+        <v>19.371343170937699</v>
       </c>
       <c r="I42">
-        <v>-155.28386099571</v>
+        <v>-155.28386207020199</v>
       </c>
       <c r="J42">
-        <v>1057.57217985392</v>
+        <v>1057.5717184953401</v>
       </c>
       <c r="K42">
-        <v>260112.233848598</v>
+        <v>260112.121986688</v>
       </c>
       <c r="L42">
-        <v>2143502.9254258298</v>
+        <v>2143503.0059507899</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -4459,22 +4462,22 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
         <v>223</v>
@@ -4497,22 +4500,22 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E44" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F44" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="H44" t="s">
         <v>223</v>
@@ -4535,22 +4538,22 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E45" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="H45" t="s">
         <v>223</v>
@@ -4573,22 +4576,22 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F46" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="H46" t="s">
         <v>223</v>
@@ -4611,22 +4614,22 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E47" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F47" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s">
         <v>223</v>
@@ -4649,22 +4652,22 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E48" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="H48" t="s">
         <v>223</v>
@@ -4687,22 +4690,22 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F49" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="H49" t="s">
         <v>223</v>
@@ -4725,22 +4728,22 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D50" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F50" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="G50" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s">
         <v>223</v>
@@ -4763,22 +4766,22 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D51" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E51" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F51" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s">
         <v>223</v>
@@ -4801,22 +4804,22 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E52" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F52" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="G52" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="H52" t="s">
         <v>223</v>
@@ -4839,22 +4842,22 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D53" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E53" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F53" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="H53" t="s">
         <v>223</v>
@@ -4877,22 +4880,22 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D54" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E54" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F54" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="G54" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="H54" t="s">
         <v>223</v>
@@ -4924,28 +4927,28 @@
         <v>27</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F55" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G55" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="H55">
-        <v>19.333678979859702</v>
+        <v>19.3336809400293</v>
       </c>
       <c r="I55">
-        <v>-155.28066018037401</v>
+        <v>-155.28066313019301</v>
       </c>
       <c r="J55">
-        <v>939.13368111010595</v>
+        <v>939.13254240527795</v>
       </c>
       <c r="K55">
-        <v>260393.53849962901</v>
+        <v>260393.23132424901</v>
       </c>
       <c r="L55">
-        <v>2139328.34360936</v>
+        <v>2139328.5647287401</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -4962,28 +4965,28 @@
         <v>27</v>
       </c>
       <c r="E56" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="F56" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="G56" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="H56">
-        <v>19.332657040430401</v>
+        <v>19.3326590006019</v>
       </c>
       <c r="I56">
-        <v>-155.28059359116199</v>
+        <v>-155.28059654096199</v>
       </c>
       <c r="J56">
-        <v>936.88399015366997</v>
+        <v>936.88284723926301</v>
       </c>
       <c r="K56">
-        <v>260399.04544355901</v>
+        <v>260398.73826792801</v>
       </c>
       <c r="L56">
-        <v>2139215.1014407598</v>
+        <v>2139215.3225599802</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -5000,28 +5003,28 @@
         <v>27</v>
       </c>
       <c r="E57" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="F57" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="G57" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="H57">
-        <v>19.331746915720299</v>
+        <v>19.331748876604699</v>
       </c>
       <c r="I57">
-        <v>-155.280247175521</v>
+        <v>-155.28025012656599</v>
       </c>
       <c r="J57">
-        <v>931.60767747834302</v>
+        <v>931.60660870466404</v>
       </c>
       <c r="K57">
-        <v>260434.12691468</v>
+        <v>260433.81960709899</v>
       </c>
       <c r="L57">
-        <v>2139113.8517890698</v>
+        <v>2139114.0729881199</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -5038,28 +5041,28 @@
         <v>27</v>
       </c>
       <c r="E58" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="F58" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="G58" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="H58">
-        <v>19.330570381402602</v>
+        <v>19.330572342290701</v>
       </c>
       <c r="I58">
-        <v>-155.28008840364799</v>
+        <v>-155.28009135467099</v>
       </c>
       <c r="J58">
-        <v>928.05348779633596</v>
+        <v>928.05241375602805</v>
       </c>
       <c r="K58">
-        <v>260449.097670463</v>
+        <v>260448.79036256799</v>
       </c>
       <c r="L58">
-        <v>2138983.3651361</v>
+        <v>2138983.5863349899</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -5076,28 +5079,28 @@
         <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F59" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="G59" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="H59">
-        <v>19.329646766899199</v>
+        <v>19.3296472963413</v>
       </c>
       <c r="I59">
-        <v>-155.279982247032</v>
+        <v>-155.279983043676</v>
       </c>
       <c r="J59">
-        <v>928.56647901702695</v>
+        <v>928.56614202726598</v>
       </c>
       <c r="K59">
-        <v>260458.90760844899</v>
+        <v>260458.82464866701</v>
       </c>
       <c r="L59">
-        <v>2138880.9548645201</v>
+        <v>2138881.01458818</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
@@ -5114,28 +5117,28 @@
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="F60" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G60" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="H60">
-        <v>19.328786780359799</v>
+        <v>19.3287870411406</v>
       </c>
       <c r="I60">
-        <v>-155.28038517807801</v>
+        <v>-155.28038556932</v>
       </c>
       <c r="J60">
-        <v>923.60923367273097</v>
+        <v>923.60910000000194</v>
       </c>
       <c r="K60">
-        <v>260415.30195685901</v>
+        <v>260415.26121521601</v>
       </c>
       <c r="L60">
-        <v>2138786.29474096</v>
+        <v>2138786.3241567998</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
@@ -5143,22 +5146,22 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D61" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E61" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F61" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="G61" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="H61" t="s">
         <v>223</v>
@@ -5181,22 +5184,22 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D62" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E62" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F62" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="G62" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="H62" t="s">
         <v>223</v>
@@ -5228,28 +5231,28 @@
         <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="F63" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="G63" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="H63">
-        <v>19.326123322175601</v>
+        <v>19.326123582956701</v>
       </c>
       <c r="I63">
-        <v>-155.28038198436801</v>
+        <v>-155.28038237560401</v>
       </c>
       <c r="J63">
-        <v>914.58503088355098</v>
+        <v>914.58489586692303</v>
       </c>
       <c r="K63">
-        <v>260411.750975312</v>
+        <v>260411.710233558</v>
       </c>
       <c r="L63">
-        <v>2138491.3904468999</v>
+        <v>2138491.4198627002</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -5266,28 +5269,28 @@
         <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="F64" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="G64" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="H64">
-        <v>19.325392531229401</v>
+        <v>19.325391875431301</v>
       </c>
       <c r="I64">
-        <v>-155.28039734756899</v>
+        <v>-155.28039635964601</v>
       </c>
       <c r="J64">
-        <v>910.31392525043304</v>
+        <v>910.31426877435297</v>
       </c>
       <c r="K64">
-        <v>260409.06984421299</v>
+        <v>260409.172726989</v>
       </c>
       <c r="L64">
-        <v>2138410.4980782</v>
+        <v>2138410.4240993802</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -5295,22 +5298,22 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F65" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="G65" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="H65" t="s">
         <v>223</v>
@@ -5333,22 +5336,22 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="C66" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="E66" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="F66" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="G66" t="s">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="H66" t="s">
         <v>223</v>
@@ -5368,5 +5371,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>